--- a/config/final_columns_240.xlsx
+++ b/config/final_columns_240.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruofei Shen\Desktop\mck_studies\中原银行\用例\理财到期模型\model\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruofei Shen\Desktop\mck_studies\中原银行\用例\高潜流失\downsell_churn_郑州\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>is_emp</t>
   </si>
@@ -588,6 +588,9 @@
     <t>expire_fix_ifm_acct_amt_over_aum</t>
   </si>
   <si>
+    <t>is_churn</t>
+  </si>
+  <si>
     <t>net_silver_cnt_12</t>
   </si>
   <si>
@@ -754,48 +757,6 @@
   </si>
   <si>
     <t>fix_ifm_future3m_expire_amt_over_aum6</t>
-  </si>
-  <si>
-    <t>fix_future45d_expire_amt_over_aum6</t>
-  </si>
-  <si>
-    <t>ifm_future45d_expire_amt_over_aum6</t>
-  </si>
-  <si>
-    <t>last_fifteen_days_pmbs_login_count</t>
-  </si>
-  <si>
-    <t>last_fifteen_day_c_tran_count</t>
-  </si>
-  <si>
-    <t>last_fifteen_day_c_tran_amt</t>
-  </si>
-  <si>
-    <t>last_fifteen_day_d_tran_count</t>
-  </si>
-  <si>
-    <t>last_fifteen_day_d_tran_amt</t>
-  </si>
-  <si>
-    <t>last_15d_1m_pmbs_login_count</t>
-  </si>
-  <si>
-    <t>last_15d_6m_d_cnt</t>
-  </si>
-  <si>
-    <t>last_15d_6m_c_cnt</t>
-  </si>
-  <si>
-    <t>last_15d_6m_d_amt</t>
-  </si>
-  <si>
-    <t>last_15d_6m_c_amt</t>
-  </si>
-  <si>
-    <t>last_15d_d_amt_per_tran</t>
-  </si>
-  <si>
-    <t>last_15d_c_amt_per_tran</t>
   </si>
 </sst>
 </file>
@@ -1219,17 +1180,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A259"/>
+  <dimension ref="A1:A258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248:A259"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="47.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2424,7 +2388,7 @@
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1">
@@ -2457,72 +2421,41 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>247</v>
-      </c>
+    <row r="248" spans="1:1" ht="15">
+      <c r="A248" s="2"/>
     </row>
     <row r="249" spans="1:1" ht="15">
-      <c r="A249" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="A249" s="2"/>
     </row>
     <row r="250" spans="1:1" ht="15">
-      <c r="A250" s="2" t="s">
-        <v>249</v>
-      </c>
+      <c r="A250" s="2"/>
     </row>
     <row r="251" spans="1:1" ht="15">
-      <c r="A251" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" ht="15">
-      <c r="A252" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="A251" s="2"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="3"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="A253" s="3"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="3" t="s">
-        <v>253</v>
-      </c>
+      <c r="A254" s="3"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="A255" s="3"/>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="3" t="s">
-        <v>255</v>
-      </c>
+      <c r="A256" s="3"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="A257" s="3"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="3" t="s">
-        <v>258</v>
-      </c>
+      <c r="A258" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>